--- a/analysis/6.3/ori.xlsx
+++ b/analysis/6.3/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,42 +57,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D74"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
@@ -112,22 +84,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>30.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B2">
         <v>0.10000000000000001</v>
@@ -136,21 +108,21 @@
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>57.633880000000275</v>
+        <v>156.51388000000028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B3">
         <v>0.10000000000000001</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>57.64388000000028</v>
+        <v>69.153880000000285</v>
       </c>
     </row>
     <row r="4">
@@ -161,52 +133,52 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C4">
-        <v>0.029999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>57.673880000000274</v>
+        <v>57.633880000000275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B5">
         <v>0.10000000000000001</v>
       </c>
       <c r="C5">
-        <v>0.040000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>57.683880000000279</v>
+        <v>47.519293333334367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B6">
         <v>0.10000000000000001</v>
       </c>
       <c r="C6">
-        <v>0.050000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="D6">
-        <v>57.693880000000277</v>
+        <v>156.52388000000028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B7">
         <v>0.10000000000000001</v>
       </c>
       <c r="C7">
-        <v>0.060000000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <v>57.703880000000275</v>
+        <v>69.183880000000286</v>
       </c>
     </row>
     <row r="8">
@@ -217,52 +189,52 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.069999999999999993</v>
+        <v>0.02</v>
       </c>
       <c r="D8">
-        <v>57.733880000000276</v>
+        <v>57.64388000000028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>30.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B9">
         <v>0.10000000000000001</v>
       </c>
       <c r="C9">
-        <v>0.080000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="D9">
-        <v>57.743692000000244</v>
+        <v>47.542626666666713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>30.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B10">
         <v>0.10000000000000001</v>
       </c>
       <c r="C10">
-        <v>0.089999999999999997</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D10">
-        <v>57.761880000000275</v>
+        <v>157.01388000000028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B11">
         <v>0.10000000000000001</v>
       </c>
       <c r="C11">
-        <v>0.099999999999999992</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D11">
-        <v>48.475960000000541</v>
+        <v>69.193880000000277</v>
       </c>
     </row>
     <row r="12">
@@ -273,52 +245,52 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C12">
-        <v>0.11</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D12">
-        <v>57.801880000000274</v>
+        <v>57.673880000000274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>30.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B13">
         <v>0.10000000000000001</v>
       </c>
       <c r="C13">
-        <v>0.12</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D13">
-        <v>57.801880000000274</v>
+        <v>47.562940000001142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>30.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B14">
         <v>0.10000000000000001</v>
       </c>
       <c r="C14">
-        <v>0.13</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D14">
-        <v>57.821880000000277</v>
+        <v>157.02388000000028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B15">
         <v>0.10000000000000001</v>
       </c>
       <c r="C15">
-        <v>0.14000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D15">
-        <v>58.023880000000275</v>
+        <v>69.184880000000291</v>
       </c>
     </row>
     <row r="16">
@@ -329,52 +301,52 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C16">
-        <v>0.15000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D16">
-        <v>58.053880000000277</v>
+        <v>57.683880000000279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>30.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B17">
         <v>0.10000000000000001</v>
       </c>
       <c r="C17">
-        <v>0.16</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D17">
-        <v>58.083880000000278</v>
+        <v>47.575960000000542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>30.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B18">
         <v>0.10000000000000001</v>
       </c>
       <c r="C18">
-        <v>0.17000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D18">
-        <v>58.113880000000279</v>
+        <v>157.3138800000003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B19">
         <v>0.10000000000000001</v>
       </c>
       <c r="C19">
-        <v>0.18000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D19">
-        <v>58.14388000000028</v>
+        <v>69.193880000000277</v>
       </c>
     </row>
     <row r="20">
@@ -385,37 +357,765 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C20">
-        <v>0.19</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D20">
-        <v>58.173880000000274</v>
+        <v>57.693880000000277</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>30.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B21">
         <v>0.10000000000000001</v>
       </c>
       <c r="C21">
-        <v>0.20000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D21">
-        <v>58.183880000000279</v>
+        <v>47.599293333334366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>30.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B22">
         <v>0.10000000000000001</v>
       </c>
       <c r="C22">
+        <v>0.060000000000000005</v>
+      </c>
+      <c r="D22">
+        <v>157.02388000000028</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B23">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.060000000000000005</v>
+      </c>
+      <c r="D23">
+        <v>69.184880000000291</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B24">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.060000000000000005</v>
+      </c>
+      <c r="D24">
+        <v>57.703880000000275</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>40.100000000000001</v>
+      </c>
+      <c r="B25">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.060000000000000005</v>
+      </c>
+      <c r="D25">
+        <v>47.602940000000132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>10.1</v>
+      </c>
+      <c r="B26">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.069999999999999993</v>
+      </c>
+      <c r="D26">
+        <v>157.29388000000029</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B27">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.069999999999999993</v>
+      </c>
+      <c r="D27">
+        <v>69.193880000000277</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B28">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.069999999999999993</v>
+      </c>
+      <c r="D28">
+        <v>57.733880000000276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>40.100000000000001</v>
+      </c>
+      <c r="B29">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.069999999999999993</v>
+      </c>
+      <c r="D29">
+        <v>47.625960000000539</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>10.1</v>
+      </c>
+      <c r="B30">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D30">
+        <v>157.04388000000029</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D31">
+        <v>69.224880000000283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D32">
+        <v>57.743692000000244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>40.100000000000001</v>
+      </c>
+      <c r="B33">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D33">
+        <v>47.635960000000544</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>10.1</v>
+      </c>
+      <c r="B34">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="D34">
+        <v>157.27388000000028</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B35">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="D35">
+        <v>69.233880000000283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B36">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="D36">
+        <v>57.761880000000275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>40.100000000000001</v>
+      </c>
+      <c r="B37">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="D37">
+        <v>47.652626666666713</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>10.1</v>
+      </c>
+      <c r="B38">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.099999999999999992</v>
+      </c>
+      <c r="D38">
+        <v>157.04388000000029</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B39">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.099999999999999992</v>
+      </c>
+      <c r="D39">
+        <v>69.244880000000279</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B40">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.099999999999999992</v>
+      </c>
+      <c r="D40">
+        <v>48.475960000000541</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40.100000000000001</v>
+      </c>
+      <c r="B41">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.099999999999999992</v>
+      </c>
+      <c r="D41">
+        <v>47.662626666666711</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>10.1</v>
+      </c>
+      <c r="B42">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.11</v>
+      </c>
+      <c r="D42">
+        <v>157.33388000000028</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B43">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.11</v>
+      </c>
+      <c r="D43">
+        <v>69.253880000000279</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B44">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.11</v>
+      </c>
+      <c r="D44">
+        <v>57.801880000000274</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>10.1</v>
+      </c>
+      <c r="B45">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.12</v>
+      </c>
+      <c r="D45">
+        <v>157.04388000000029</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.12</v>
+      </c>
+      <c r="D46">
+        <v>69.224880000000283</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B47">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.12</v>
+      </c>
+      <c r="D47">
+        <v>57.801880000000274</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>10.1</v>
+      </c>
+      <c r="B48">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.13</v>
+      </c>
+      <c r="D48">
+        <v>157.03388000000029</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B49">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.13</v>
+      </c>
+      <c r="D49">
+        <v>69.253880000000279</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B50">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.13</v>
+      </c>
+      <c r="D50">
+        <v>57.821880000000277</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>10.1</v>
+      </c>
+      <c r="B51">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D51">
+        <v>157.0638800000003</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B52">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D52">
+        <v>69.264880000000289</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B53">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D53">
+        <v>58.023880000000275</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>10.1</v>
+      </c>
+      <c r="B54">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D54">
+        <v>157.07388000000029</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B55">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C55">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D55">
+        <v>69.27388000000029</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B56">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D56">
+        <v>58.053880000000277</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>10.1</v>
+      </c>
+      <c r="B57">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.16</v>
+      </c>
+      <c r="D57">
+        <v>157.0638800000003</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.16</v>
+      </c>
+      <c r="D58">
+        <v>69.284880000000285</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.16</v>
+      </c>
+      <c r="D59">
+        <v>58.083880000000278</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>10.1</v>
+      </c>
+      <c r="B60">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="D60">
+        <v>157.07388000000029</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B61">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C61">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="D61">
+        <v>69.313880000000282</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B62">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="D62">
+        <v>58.113880000000279</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>10.1</v>
+      </c>
+      <c r="B63">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D63">
+        <v>156.6238800000003</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B64">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D64">
+        <v>69.304880000000281</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B65">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D65">
+        <v>58.14388000000028</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>10.1</v>
+      </c>
+      <c r="B66">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.19</v>
+      </c>
+      <c r="D66">
+        <v>157.07388000000029</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B67">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.19</v>
+      </c>
+      <c r="D67">
+        <v>69.333880000000278</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B68">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.19</v>
+      </c>
+      <c r="D68">
+        <v>58.173880000000274</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>10.1</v>
+      </c>
+      <c r="B69">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D69">
+        <v>156.60388000000029</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B70">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D70">
+        <v>69.324880000000277</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D71">
+        <v>58.183880000000279</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>10.1</v>
+      </c>
+      <c r="B72">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C72">
         <v>0.21000000000000002</v>
       </c>
-      <c r="D22">
+      <c r="D72">
+        <v>157.0938800000003</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B73">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="D73">
+        <v>69.333880000000278</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>30.100000000000001</v>
+      </c>
+      <c r="B74">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C74">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="D74">
         <v>58.21388000000028</v>
       </c>
     </row>
